--- a/4-elements-polices-espaces.xlsx
+++ b/4-elements-polices-espaces.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\4-elements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0D6185-5255-4F22-96B7-7AADF270BC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FA650-EC00-43D3-94D3-8C11082496CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="252" windowWidth="20736" windowHeight="11952" xr2:uid="{C4399B00-4CC8-4EE9-AF22-B9B9B3878E25}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C4399B00-4CC8-4EE9-AF22-B9B9B3878E25}"/>
   </bookViews>
   <sheets>
     <sheet name="Polices" sheetId="1" r:id="rId1"/>
     <sheet name="Tailles" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Polices!$A$1:$K$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Categorie</t>
   </si>
@@ -188,6 +191,12 @@
   </si>
   <si>
     <t>primary</t>
+  </si>
+  <si>
+    <t>p-btn</t>
+  </si>
+  <si>
+    <t>s-btn</t>
   </si>
 </sst>
 </file>
@@ -572,10 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61757734-3C9E-4A85-8A8F-2D5FEAB6BDB5}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +593,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
@@ -658,7 +668,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -718,7 +728,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,7 +788,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -838,7 +848,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -896,7 +906,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,7 +966,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1014,10 @@
       <c r="G14" s="1">
         <v>15</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1013,7 +1026,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,16 +1132,23 @@
       <c r="K21" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K15" xr:uid="{61757734-3C9E-4A85-8A8F-2D5FEAB6BDB5}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Desktop"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3143290C-E08B-4DB5-A8BC-8750908AB987}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1531,68 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>107</v>
+      </c>
       <c r="D31" s="4"/>
+      <c r="E31">
+        <f t="shared" ref="E31:E32" si="4">C31/$E$3</f>
+        <v>6.6875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ref="D32" si="5">C32/$C$3</f>
+        <v>2.447089947089947E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>2.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>180</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33">
+        <f t="shared" ref="E33:E34" si="6">C33/$E$3</f>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34" si="7">C34/$C$3</f>
+        <v>3.2407407407407406E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>3.0625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
